--- a/NUDTMSC新同学名单.xlsx
+++ b/NUDTMSC新同学名单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LiangZhang\Desktop\nudtmsc\材料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LiangZhang\Desktop\nudtmsc\msc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>陈琳</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -260,10 +260,6 @@
   <si>
     <t>肖欣怡</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>注:刚入群但是没有及时填表的同学请尽快联系我</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>齐新新</t>
@@ -313,18 +309,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -341,17 +331,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -634,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -646,13 +639,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -673,6 +664,7 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -796,178 +788,170 @@
     </row>
     <row r="30" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>58</v>
+      <c r="A60" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
